--- a/biology/Zoologie/Aspidoscelis_sackii/Aspidoscelis_sackii.xlsx
+++ b/biology/Zoologie/Aspidoscelis_sackii/Aspidoscelis_sackii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis sackii est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis sackii est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Guatemala ;
 dans le Sud du Mexique.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 mai 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 mai 2012) :
 Aspidoscelis sackii australis (Gadow, 1906)
 Aspidoscelis sackii bocourti (Boulenger, 1885)
 Aspidoscelis sackii gigas (Davis &amp; Smith, 1952)
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Count von Sack qui a collecté les spécimens types[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Count von Sack qui a collecté les spécimens types.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1885 : Catalogue of the lizards in the British Museum (Natural History) II. Iguanidae, Xenosauridae, Zonuridae, Anguidae, Anniellidae, Helodermatidae, Varanidae, Xantusiidae, Teiidae, Amphisbaenidae, Second edition, London, vol. 2, p. 1-497 (texte intégral).
 Davis &amp; Smith, 1952 : A new whiptailed lizard (Genus Cnemidophorus) from Mexico. Herpetologica, vol. 8, p. 97-100.
